--- a/_Lista de pendências do Ativo Fixo/relatórios de fechamento/Controle de Pendências - MIT006 - 2022 05 08_Elton Alves.xlsx
+++ b/_Lista de pendências do Ativo Fixo/relatórios de fechamento/Controle de Pendências - MIT006 - 2022 05 08_Elton Alves.xlsx
@@ -2204,21 +2204,23 @@
     <t>Nós teste seria mais prudente que manter que o percentual fosse digitado, pois poderíamos induzir o cliente ao erro com a quantidade.</t>
   </si>
   <si>
+    <t>Depreciação do Mês</t>
+  </si>
+  <si>
+    <t>Ponto de atenção ao Evanildo, a integração do compras traz o centro de custo  para os campos de centros de custos do bem e despesa, se na seleção do local o centro de custo não estiver preenchido, apaga o conteúdo do campo de despesa.</t>
+  </si>
+  <si>
+    <t>Situação</t>
+  </si>
+  <si>
+    <t>Verificado que os dois campos são preenchidos com o centro de custo vindo do compras, mas ao selecionar o local sem centro de custo informado deixa o campo em branco, se ao selecionar o local é definido o centro de custo por que isso vem do compras ???? Outro ponto deixamos o centro de custo do bem em branco por conta da amarração de contas e centro de custo ???</t>
+  </si>
+  <si>
     <t>Verificar por que a tabela genérica de séries está exclusiva (tabela 01) sendo que SX5 está definidada como compartilhada.
 Consultar os link´s https://tdn.totvs.com/pages/releaseview.action?pageId=329024579#1-TPNRNFS
-Consultar os link´s https://centraldeatendimento.totvs.com/hc/pt-br/articles/360020161711-Cross-Segmento-TOTVS-Backoffice-Linha-Protheus-SIGAFAT-Principais-Pontos-de-Entrada-que-permitem-tratar-a-Numera%C3%A7%C3%A3o-do-Documento-de-Sa%C3%ADda</t>
-  </si>
-  <si>
-    <t>Depreciação do Mês</t>
-  </si>
-  <si>
-    <t>Ponto de atenção ao Evanildo, a integração do compras traz o centro de custo  para os campos de centros de custos do bem e despesa, se na seleção do local o centro de custo não estiver preenchido, apaga o conteúdo do campo de despesa.</t>
-  </si>
-  <si>
-    <t>Situação</t>
-  </si>
-  <si>
-    <t>Verificado que os dois campos são preenchidos com o centro de custo vindo do compras, mas ao selecionar o local sem centro de custo informado deixa o campo em branco, se ao selecionar o local é definido o centro de custo por que isso vem do compras ???? Outro ponto deixamos o centro de custo do bem em branco por conta da amarração de contas e centro de custo ???</t>
+Consultar os link´s https://centraldeatendimento.totvs.com/hc/pt-br/articles/360020161711-Cross-Segmento-TOTVS-Backoffice-Linha-Protheus-SIGAFAT-Principais-Pontos-de-Entrada-que-permitem-tratar-a-Numera%C3%A7%C3%A3o-do-Documento-de-Sa%C3%ADda
+Neste link temos toda a orientação sobre como proceder para ajustar a divergência de séries Faturamento e Ativo.
+https://tdn.totvs.com/pages/releaseview.action?pageId=329024579#1-2</t>
   </si>
 </sst>
 </file>
@@ -2558,7 +2560,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="158">
+  <cellXfs count="157">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2970,6 +2972,20 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2982,23 +2998,6 @@
     <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7565,22 +7564,22 @@
   <sheetData>
     <row r="1" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="145" t="s">
+      <c r="B1" s="151" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="146"/>
-      <c r="D1" s="146"/>
-      <c r="E1" s="146"/>
-      <c r="F1" s="146"/>
-      <c r="G1" s="146"/>
-      <c r="H1" s="146"/>
-      <c r="I1" s="146"/>
-      <c r="J1" s="146"/>
-      <c r="K1" s="146"/>
-      <c r="L1" s="146"/>
-      <c r="M1" s="146"/>
-      <c r="N1" s="146"/>
-      <c r="O1" s="146"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="152"/>
+      <c r="H1" s="152"/>
+      <c r="I1" s="152"/>
+      <c r="J1" s="152"/>
+      <c r="K1" s="152"/>
+      <c r="L1" s="152"/>
+      <c r="M1" s="152"/>
+      <c r="N1" s="152"/>
+      <c r="O1" s="152"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
@@ -7595,20 +7594,20 @@
     </row>
     <row r="2" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="146"/>
-      <c r="C2" s="147"/>
-      <c r="D2" s="147"/>
-      <c r="E2" s="147"/>
-      <c r="F2" s="147"/>
-      <c r="G2" s="147"/>
-      <c r="H2" s="147"/>
-      <c r="I2" s="147"/>
-      <c r="J2" s="147"/>
-      <c r="K2" s="147"/>
-      <c r="L2" s="147"/>
-      <c r="M2" s="147"/>
-      <c r="N2" s="147"/>
-      <c r="O2" s="146"/>
+      <c r="B2" s="152"/>
+      <c r="C2" s="153"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="153"/>
+      <c r="F2" s="153"/>
+      <c r="G2" s="153"/>
+      <c r="H2" s="153"/>
+      <c r="I2" s="153"/>
+      <c r="J2" s="153"/>
+      <c r="K2" s="153"/>
+      <c r="L2" s="153"/>
+      <c r="M2" s="153"/>
+      <c r="N2" s="153"/>
+      <c r="O2" s="152"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -7623,20 +7622,20 @@
     </row>
     <row r="3" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3" s="146"/>
-      <c r="C3" s="147"/>
-      <c r="D3" s="147"/>
-      <c r="E3" s="147"/>
-      <c r="F3" s="147"/>
-      <c r="G3" s="147"/>
-      <c r="H3" s="147"/>
-      <c r="I3" s="147"/>
-      <c r="J3" s="147"/>
-      <c r="K3" s="147"/>
-      <c r="L3" s="147"/>
-      <c r="M3" s="147"/>
-      <c r="N3" s="147"/>
-      <c r="O3" s="146"/>
+      <c r="B3" s="152"/>
+      <c r="C3" s="153"/>
+      <c r="D3" s="153"/>
+      <c r="E3" s="153"/>
+      <c r="F3" s="153"/>
+      <c r="G3" s="153"/>
+      <c r="H3" s="153"/>
+      <c r="I3" s="153"/>
+      <c r="J3" s="153"/>
+      <c r="K3" s="153"/>
+      <c r="L3" s="153"/>
+      <c r="M3" s="153"/>
+      <c r="N3" s="153"/>
+      <c r="O3" s="152"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -7651,20 +7650,20 @@
     </row>
     <row r="4" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="148"/>
-      <c r="C4" s="148"/>
-      <c r="D4" s="148"/>
-      <c r="E4" s="148"/>
-      <c r="F4" s="148"/>
-      <c r="G4" s="148"/>
-      <c r="H4" s="148"/>
-      <c r="I4" s="148"/>
-      <c r="J4" s="148"/>
-      <c r="K4" s="148"/>
-      <c r="L4" s="148"/>
-      <c r="M4" s="148"/>
-      <c r="N4" s="148"/>
-      <c r="O4" s="148"/>
+      <c r="B4" s="154"/>
+      <c r="C4" s="154"/>
+      <c r="D4" s="154"/>
+      <c r="E4" s="154"/>
+      <c r="F4" s="154"/>
+      <c r="G4" s="154"/>
+      <c r="H4" s="154"/>
+      <c r="I4" s="154"/>
+      <c r="J4" s="154"/>
+      <c r="K4" s="154"/>
+      <c r="L4" s="154"/>
+      <c r="M4" s="154"/>
+      <c r="N4" s="154"/>
+      <c r="O4" s="154"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
@@ -7824,8 +7823,8 @@
       <c r="D9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="149"/>
-      <c r="F9" s="146"/>
+      <c r="E9" s="155"/>
+      <c r="F9" s="152"/>
       <c r="G9" s="124"/>
       <c r="H9" s="23"/>
       <c r="I9" s="6"/>
@@ -40065,8 +40064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:D17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -40104,7 +40103,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="102" x14ac:dyDescent="0.2">
       <c r="A3" s="135" t="s">
         <v>138</v>
       </c>
@@ -40115,7 +40114,7 @@
         <v>638</v>
       </c>
       <c r="D3" s="137" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -40157,16 +40156,16 @@
       <c r="D6" s="132"/>
     </row>
     <row r="7" spans="1:4" ht="33" x14ac:dyDescent="0.2">
-      <c r="A7" s="154" t="s">
+      <c r="A7" s="140" t="s">
         <v>134</v>
       </c>
-      <c r="B7" s="154">
+      <c r="B7" s="140">
         <v>3</v>
       </c>
-      <c r="C7" s="129" t="s">
+      <c r="C7" s="132" t="s">
         <v>640</v>
       </c>
-      <c r="D7" s="129"/>
+      <c r="D7" s="132"/>
     </row>
     <row r="8" spans="1:4" ht="49.5" x14ac:dyDescent="0.2">
       <c r="A8" s="81" t="s">
@@ -40191,10 +40190,10 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="49.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="155" t="s">
+      <c r="A10" s="148" t="s">
         <v>628</v>
       </c>
-      <c r="B10" s="155">
+      <c r="B10" s="148">
         <v>3</v>
       </c>
       <c r="C10" s="129"/>
@@ -40212,8 +40211,8 @@
       <c r="C11" s="132" t="s">
         <v>637</v>
       </c>
-      <c r="D11" s="153" t="s">
-        <v>679</v>
+      <c r="D11" s="147" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -40250,10 +40249,10 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="165" x14ac:dyDescent="0.2">
-      <c r="A15" s="151" t="s">
+      <c r="A15" s="145" t="s">
         <v>668</v>
       </c>
-      <c r="B15" s="152">
+      <c r="B15" s="146">
         <v>5</v>
       </c>
       <c r="C15" s="132" t="s">
@@ -40264,10 +40263,10 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="49.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="152" t="s">
+      <c r="A16" s="146" t="s">
         <v>633</v>
       </c>
-      <c r="B16" s="152">
+      <c r="B16" s="146">
         <v>5</v>
       </c>
       <c r="C16" s="132" t="s">
@@ -40278,11 +40277,11 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="156" t="s">
+      <c r="A17" s="149" t="s">
         <v>646</v>
       </c>
       <c r="B17" s="129"/>
-      <c r="C17" s="157" t="s">
+      <c r="C17" s="150" t="s">
         <v>647</v>
       </c>
       <c r="D17" s="129"/>
@@ -40362,8 +40361,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="150" t="s">
-        <v>678</v>
+      <c r="A1" s="156" t="s">
+        <v>677</v>
       </c>
       <c r="B1" s="143" t="s">
         <v>656</v>
@@ -40380,13 +40379,13 @@
       <c r="L1" s="127"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="150"/>
+      <c r="A2" s="156"/>
       <c r="B2" s="143" t="s">
         <v>657</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="150"/>
+      <c r="A3" s="156"/>
       <c r="B3" s="143" t="s">
         <v>658</v>
       </c>
@@ -40409,7 +40408,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="138" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -40472,7 +40471,7 @@
         <v>664</v>
       </c>
       <c r="B19" s="144" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
